--- a/app/data/templates/constructor_schedule.xlsx
+++ b/app/data/templates/constructor_schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Расписание" sheetId="1" state="visible" r:id="rId2"/>
@@ -427,8 +427,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -453,7 +453,7 @@
   </sheetPr>
   <dimension ref="A1:X122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="16" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
